--- a/Code/Results/Cases/Case_2_129/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_129/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9820187295885596</v>
+        <v>1.016352683689298</v>
       </c>
       <c r="D2">
-        <v>1.004091984913844</v>
+        <v>1.022454944189424</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9578931200453578</v>
+        <v>1.014695902335164</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038593396697998</v>
+        <v>1.026630963468057</v>
       </c>
       <c r="J2">
-        <v>1.004750888813962</v>
+        <v>1.021572980513314</v>
       </c>
       <c r="K2">
-        <v>1.015494604746086</v>
+        <v>1.025289275695335</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9699720027490479</v>
+        <v>1.01755328198371</v>
       </c>
       <c r="N2">
-        <v>1.006177750322616</v>
+        <v>1.023023731321702</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9874452994933515</v>
+        <v>1.017417861839457</v>
       </c>
       <c r="D3">
-        <v>1.00816036645354</v>
+        <v>1.023248169251022</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9661426075098807</v>
+        <v>1.016405834474572</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04015447216692</v>
+        <v>1.026827765241115</v>
       </c>
       <c r="J3">
-        <v>1.008284169601909</v>
+        <v>1.022272963540431</v>
       </c>
       <c r="K3">
-        <v>1.018689887874041</v>
+        <v>1.025889207207821</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9772278480594947</v>
+        <v>1.019065705187147</v>
       </c>
       <c r="N3">
-        <v>1.009716048774555</v>
+        <v>1.023724708405006</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9908585411491643</v>
+        <v>1.018105911866639</v>
       </c>
       <c r="D4">
-        <v>1.010717920118531</v>
+        <v>1.023759904275757</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9713197818805691</v>
+        <v>1.017510845966939</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041118266730506</v>
+        <v>1.026952620334731</v>
       </c>
       <c r="J4">
-        <v>1.01049901268797</v>
+        <v>1.022724194184579</v>
       </c>
       <c r="K4">
-        <v>1.020688687700336</v>
+        <v>1.026275222182209</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9817771368073578</v>
+        <v>1.020042484989629</v>
       </c>
       <c r="N4">
-        <v>1.011934037191843</v>
+        <v>1.024176579848425</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9922710909089189</v>
+        <v>1.018394885311058</v>
       </c>
       <c r="D5">
-        <v>1.011775926201244</v>
+        <v>1.023974671223621</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9734600239085732</v>
+        <v>1.017975060115984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041512714318541</v>
+        <v>1.027004513831203</v>
       </c>
       <c r="J5">
-        <v>1.011413786263256</v>
+        <v>1.02291348499487</v>
       </c>
       <c r="K5">
-        <v>1.021513184544368</v>
+        <v>1.026436981812285</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.983656733565871</v>
+        <v>1.020452686370934</v>
       </c>
       <c r="N5">
-        <v>1.012850109850532</v>
+        <v>1.024366139473379</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.992506982760032</v>
+        <v>1.018443388711805</v>
       </c>
       <c r="D6">
-        <v>1.011952583000618</v>
+        <v>1.024010710076606</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9738173165774886</v>
+        <v>1.018052984477822</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041578324399842</v>
+        <v>1.027013192058867</v>
       </c>
       <c r="J6">
-        <v>1.011566443004045</v>
+        <v>1.022945243962417</v>
       </c>
       <c r="K6">
-        <v>1.02165071307485</v>
+        <v>1.026464111439777</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9839704493907808</v>
+        <v>1.02052153560906</v>
       </c>
       <c r="N6">
-        <v>1.013002983381403</v>
+        <v>1.024397943542303</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9908775022274703</v>
+        <v>1.018109774252115</v>
       </c>
       <c r="D7">
-        <v>1.010732123831953</v>
+        <v>1.02376277544106</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9713485194728573</v>
+        <v>1.017517050114743</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041123579072227</v>
+        <v>1.026953316078162</v>
       </c>
       <c r="J7">
-        <v>1.010511299215003</v>
+        <v>1.022726725093109</v>
       </c>
       <c r="K7">
-        <v>1.020699765905734</v>
+        <v>1.026277385668527</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9818023789703438</v>
+        <v>1.020047967826948</v>
       </c>
       <c r="N7">
-        <v>1.011946341167155</v>
+        <v>1.024179114351136</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9838736758240318</v>
+        <v>1.016712913817593</v>
       </c>
       <c r="D8">
-        <v>1.005482908996452</v>
+        <v>1.022723336642958</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9607157873936468</v>
+        <v>1.015274083460961</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039130786816416</v>
+        <v>1.026697989025844</v>
       </c>
       <c r="J8">
-        <v>1.005960239549015</v>
+        <v>1.021809897138386</v>
       </c>
       <c r="K8">
-        <v>1.016589119494195</v>
+        <v>1.025492477543771</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9724555613261807</v>
+        <v>1.018064802407768</v>
       </c>
       <c r="N8">
-        <v>1.007388818474427</v>
+        <v>1.023260984395556</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.97072574708506</v>
+        <v>1.014242230554431</v>
       </c>
       <c r="D9">
-        <v>0.9956216701648352</v>
+        <v>1.020879915135877</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9406351520742376</v>
+        <v>1.011310322327099</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03524665811324</v>
+        <v>1.026228996634949</v>
       </c>
       <c r="J9">
-        <v>0.9973563613442535</v>
+        <v>1.020181193002234</v>
       </c>
       <c r="K9">
-        <v>1.008786184390044</v>
+        <v>1.024092618545396</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9547708812545387</v>
+        <v>1.014555602028238</v>
       </c>
       <c r="N9">
-        <v>0.9987727217757361</v>
+        <v>1.021629967312716</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9613327731011588</v>
+        <v>1.012588738015894</v>
       </c>
       <c r="D10">
-        <v>0.9885782043300636</v>
+        <v>1.019642968874427</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9261647804419176</v>
+        <v>1.008659577465204</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032378940030092</v>
+        <v>1.025903491092794</v>
       </c>
       <c r="J10">
-        <v>0.9911692098661782</v>
+        <v>1.019086447570949</v>
       </c>
       <c r="K10">
-        <v>1.003156791208891</v>
+        <v>1.023148045563451</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9420086740546687</v>
+        <v>1.012205791179569</v>
       </c>
       <c r="N10">
-        <v>0.9925767838328856</v>
+        <v>1.020533667217349</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9570944638891952</v>
+        <v>1.011871209637478</v>
       </c>
       <c r="D11">
-        <v>0.9854019312489968</v>
+        <v>1.019105444021029</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9195943223733327</v>
+        <v>1.007509688740975</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031063956854478</v>
+        <v>1.025759491817609</v>
       </c>
       <c r="J11">
-        <v>0.9883678918288035</v>
+        <v>1.018610263879704</v>
       </c>
       <c r="K11">
-        <v>1.000604498512977</v>
+        <v>1.022736329627008</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9362104868093533</v>
+        <v>1.011185726843843</v>
       </c>
       <c r="N11">
-        <v>0.9897714876025822</v>
+        <v>1.020056807290644</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9554922962694665</v>
+        <v>1.01160445068494</v>
       </c>
       <c r="D12">
-        <v>0.9842016600598341</v>
+        <v>1.018905493495206</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9171032181072329</v>
+        <v>1.007082242005985</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030563802739983</v>
+        <v>1.025705544789199</v>
       </c>
       <c r="J12">
-        <v>0.9873075021685268</v>
+        <v>1.018433062444378</v>
       </c>
       <c r="K12">
-        <v>0.9996379220346437</v>
+        <v>1.022582991282056</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9340117794066574</v>
+        <v>1.010806431639418</v>
       </c>
       <c r="N12">
-        <v>0.9887095920673595</v>
+        <v>1.019879354208954</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9558372656155192</v>
+        <v>1.011661682162603</v>
       </c>
       <c r="D13">
-        <v>0.9844600738574419</v>
+        <v>1.01894839670407</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9176399397228167</v>
+        <v>1.00717394575956</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030671629753955</v>
+        <v>1.025717137403012</v>
       </c>
       <c r="J13">
-        <v>0.9875358838600498</v>
+        <v>1.018471087526327</v>
       </c>
       <c r="K13">
-        <v>0.9998461177526003</v>
+        <v>1.022615901399273</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9344855187965464</v>
+        <v>1.010887809917943</v>
       </c>
       <c r="N13">
-        <v>0.9889382980870798</v>
+        <v>1.019917433290881</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9569626102574365</v>
+        <v>1.011849164112576</v>
       </c>
       <c r="D14">
-        <v>0.9853031430269629</v>
+        <v>1.019088921970454</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9193894680133823</v>
+        <v>1.007474362595664</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031022857258836</v>
+        <v>1.025755041912102</v>
       </c>
       <c r="J14">
-        <v>0.988280654026894</v>
+        <v>1.018595623009816</v>
       </c>
       <c r="K14">
-        <v>1.000524987366003</v>
+        <v>1.022723662978779</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9360296849751643</v>
+        <v>1.011154382359933</v>
       </c>
       <c r="N14">
-        <v>0.9896841259129876</v>
+        <v>1.020042145629041</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9576522097072164</v>
+        <v>1.011964646429646</v>
       </c>
       <c r="D15">
-        <v>0.9858198272899928</v>
+        <v>1.019175465768117</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9204605583540342</v>
+        <v>1.007659415663257</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031237685677291</v>
+        <v>1.025778335253778</v>
       </c>
       <c r="J15">
-        <v>0.9887368526786272</v>
+        <v>1.018672310214152</v>
       </c>
       <c r="K15">
-        <v>1.000940762628159</v>
+        <v>1.022790004236537</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9369750000076282</v>
+        <v>1.011318573409226</v>
       </c>
       <c r="N15">
-        <v>0.9901409724191329</v>
+        <v>1.020118941738003</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9616102721034337</v>
+        <v>1.012636324963105</v>
       </c>
       <c r="D16">
-        <v>0.988786218365032</v>
+        <v>1.019678602066127</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9265940289334328</v>
+        <v>1.008735846591285</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032464609615582</v>
+        <v>1.025912983474025</v>
       </c>
       <c r="J16">
-        <v>0.9913524256729568</v>
+        <v>1.019118004781412</v>
       </c>
       <c r="K16">
-        <v>1.003323653552713</v>
+        <v>1.023175312567926</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9423874092358119</v>
+        <v>1.01227343425134</v>
       </c>
       <c r="N16">
-        <v>0.992760259827125</v>
+        <v>1.020565269242671</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9640458059712866</v>
+        <v>1.01305723246406</v>
       </c>
       <c r="D17">
-        <v>0.9906121308877094</v>
+        <v>1.01999369132389</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9303566590515094</v>
+        <v>1.009410493262613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033214145010374</v>
+        <v>1.025996626911626</v>
       </c>
       <c r="J17">
-        <v>0.9929593833907225</v>
+        <v>1.01939699949588</v>
       </c>
       <c r="K17">
-        <v>1.004786790341225</v>
+        <v>1.023416279729347</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9457068929930154</v>
+        <v>1.012871695146693</v>
       </c>
       <c r="N17">
-        <v>0.9943694996091705</v>
+        <v>1.020844660161634</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9654500636174239</v>
+        <v>1.013302590861348</v>
       </c>
       <c r="D18">
-        <v>0.9916650667299753</v>
+        <v>1.020177292514019</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9325222947465847</v>
+        <v>1.009803801543454</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033644321615194</v>
+        <v>1.026045120162039</v>
       </c>
       <c r="J18">
-        <v>0.993885010195519</v>
+        <v>1.01955952494631</v>
       </c>
       <c r="K18">
-        <v>1.005629239867752</v>
+        <v>1.023556570473386</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9476171486736907</v>
+        <v>1.013220402293914</v>
       </c>
       <c r="N18">
-        <v>0.9952964409102008</v>
+        <v>1.021007416416846</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9659261678334419</v>
+        <v>1.013386226420138</v>
       </c>
       <c r="D19">
-        <v>0.9920220821116459</v>
+        <v>1.02023986443479</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9332559283840687</v>
+        <v>1.009937875637839</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033789830983447</v>
+        <v>1.026061605162946</v>
       </c>
       <c r="J19">
-        <v>0.9941986853946103</v>
+        <v>1.019614906808336</v>
       </c>
       <c r="K19">
-        <v>1.005914669144262</v>
+        <v>1.023604361714805</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9482642122248303</v>
+        <v>1.013339260607731</v>
       </c>
       <c r="N19">
-        <v>0.9956105615640539</v>
+        <v>1.021062876927468</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9637862020087818</v>
+        <v>1.013012088595076</v>
       </c>
       <c r="D20">
-        <v>0.9904174881393791</v>
+        <v>1.019959904380522</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>0.9299560007839404</v>
+        <v>1.009338131009134</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033134457353683</v>
+        <v>1.025987683233767</v>
       </c>
       <c r="J20">
-        <v>0.9927881907873028</v>
+        <v>1.01936708747835</v>
       </c>
       <c r="K20">
-        <v>1.0046309535577</v>
+        <v>1.023390453275968</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9453534552003481</v>
+        <v>1.012807533174147</v>
       </c>
       <c r="N20">
-        <v>0.9941980638926177</v>
+        <v>1.020814705665609</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9566320124316215</v>
+        <v>1.011793961919384</v>
       </c>
       <c r="D21">
-        <v>0.9850554577429209</v>
+        <v>1.019047548796336</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.918875712528908</v>
+        <v>1.007385906441489</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030919758909492</v>
+        <v>1.025743892662174</v>
       </c>
       <c r="J21">
-        <v>0.9880618988037979</v>
+        <v>1.018558959421325</v>
       </c>
       <c r="K21">
-        <v>1.000325600318446</v>
+        <v>1.022691941175273</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9355762449169859</v>
+        <v>1.011075894485766</v>
       </c>
       <c r="N21">
-        <v>0.9894650600323833</v>
+        <v>1.020005429974049</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9519713581712484</v>
+        <v>1.011026704654397</v>
       </c>
       <c r="D22">
-        <v>0.9815648824650979</v>
+        <v>1.018472236776189</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9116137735985405</v>
+        <v>1.006156568441006</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0294591172001</v>
+        <v>1.025587954266781</v>
       </c>
       <c r="J22">
-        <v>0.9849745303435694</v>
+        <v>1.018048972170091</v>
       </c>
       <c r="K22">
-        <v>0.997510607518082</v>
+        <v>1.022250393365223</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9291660556380299</v>
+        <v>1.009984837334178</v>
       </c>
       <c r="N22">
-        <v>0.986373307154815</v>
+        <v>1.019494718482421</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9544582617551362</v>
+        <v>1.011433573479443</v>
       </c>
       <c r="D23">
-        <v>0.9834271467686104</v>
+        <v>1.018777380136001</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9154932376449255</v>
+        <v>1.006808447469417</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030240153041742</v>
+        <v>1.025670872266445</v>
       </c>
       <c r="J23">
-        <v>0.9866227248277256</v>
+        <v>1.018319505535985</v>
       </c>
       <c r="K23">
-        <v>0.999013610227282</v>
+        <v>1.022484690991812</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9325906741514249</v>
+        <v>1.0105634494877</v>
       </c>
       <c r="N23">
-        <v>0.988023842264189</v>
+        <v>1.019765636036726</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9639035562251473</v>
+        <v>1.013032487629076</v>
       </c>
       <c r="D24">
-        <v>0.9905054760662109</v>
+        <v>1.019975171817649</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9301371304074513</v>
+        <v>1.009370829018875</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033170486400832</v>
+        <v>1.02599172540694</v>
       </c>
       <c r="J24">
-        <v>0.9928655813541828</v>
+        <v>1.019380604072392</v>
       </c>
       <c r="K24">
-        <v>1.004701403306959</v>
+        <v>1.023402123945975</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.945513238391847</v>
+        <v>1.01283652597404</v>
       </c>
       <c r="N24">
-        <v>0.9942755643629796</v>
+        <v>1.020828241454765</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9742286087477351</v>
+        <v>1.014882072341768</v>
       </c>
       <c r="D25">
-        <v>0.9982491145191488</v>
+        <v>1.021357888565543</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9460029281314163</v>
+        <v>1.012336457598084</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036297629579426</v>
+        <v>1.026352504695465</v>
       </c>
       <c r="J25">
-        <v>0.9996555370413688</v>
+        <v>1.020603820029821</v>
       </c>
       <c r="K25">
-        <v>1.010874671671886</v>
+        <v>1.024456507912286</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9595016114710401</v>
+        <v>1.01546459913848</v>
       </c>
       <c r="N25">
-        <v>1.00107516256606</v>
+        <v>1.022053194519157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_129/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_129/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016352683689298</v>
+        <v>0.98201872958856</v>
       </c>
       <c r="D2">
-        <v>1.022454944189424</v>
+        <v>1.004091984913844</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.014695902335164</v>
+        <v>0.957893120045358</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026630963468057</v>
+        <v>1.038593396697998</v>
       </c>
       <c r="J2">
-        <v>1.021572980513314</v>
+        <v>1.004750888813963</v>
       </c>
       <c r="K2">
-        <v>1.025289275695335</v>
+        <v>1.015494604746086</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.01755328198371</v>
+        <v>0.9699720027490479</v>
       </c>
       <c r="N2">
-        <v>1.023023731321702</v>
+        <v>1.006177750322617</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017417861839457</v>
+        <v>0.9874452994933516</v>
       </c>
       <c r="D3">
-        <v>1.023248169251022</v>
+        <v>1.008160366453541</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.016405834474572</v>
+        <v>0.9661426075098809</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026827765241115</v>
+        <v>1.04015447216692</v>
       </c>
       <c r="J3">
-        <v>1.022272963540431</v>
+        <v>1.008284169601909</v>
       </c>
       <c r="K3">
-        <v>1.025889207207821</v>
+        <v>1.018689887874042</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.019065705187147</v>
+        <v>0.977227848059495</v>
       </c>
       <c r="N3">
-        <v>1.023724708405006</v>
+        <v>1.009716048774555</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018105911866639</v>
+        <v>0.9908585411491647</v>
       </c>
       <c r="D4">
-        <v>1.023759904275757</v>
+        <v>1.010717920118532</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.017510845966939</v>
+        <v>0.9713197818805698</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026952620334731</v>
+        <v>1.041118266730506</v>
       </c>
       <c r="J4">
-        <v>1.022724194184579</v>
+        <v>1.01049901268797</v>
       </c>
       <c r="K4">
-        <v>1.026275222182209</v>
+        <v>1.020688687700337</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.020042484989629</v>
+        <v>0.9817771368073585</v>
       </c>
       <c r="N4">
-        <v>1.024176579848425</v>
+        <v>1.011934037191843</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018394885311058</v>
+        <v>0.992271090908919</v>
       </c>
       <c r="D5">
-        <v>1.023974671223621</v>
+        <v>1.011775926201244</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.017975060115984</v>
+        <v>0.9734600239085733</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027004513831203</v>
+        <v>1.04151271431854</v>
       </c>
       <c r="J5">
-        <v>1.02291348499487</v>
+        <v>1.011413786263256</v>
       </c>
       <c r="K5">
-        <v>1.026436981812285</v>
+        <v>1.021513184544368</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.020452686370934</v>
+        <v>0.9836567335658714</v>
       </c>
       <c r="N5">
-        <v>1.024366139473379</v>
+        <v>1.012850109850532</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018443388711805</v>
+        <v>0.9925069827600322</v>
       </c>
       <c r="D6">
-        <v>1.024010710076606</v>
+        <v>1.011952583000618</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.018052984477822</v>
+        <v>0.9738173165774895</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027013192058867</v>
+        <v>1.041578324399843</v>
       </c>
       <c r="J6">
-        <v>1.022945243962417</v>
+        <v>1.011566443004045</v>
       </c>
       <c r="K6">
-        <v>1.026464111439777</v>
+        <v>1.021650713074851</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.02052153560906</v>
+        <v>0.9839704493907817</v>
       </c>
       <c r="N6">
-        <v>1.024397943542303</v>
+        <v>1.013002983381404</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018109774252115</v>
+        <v>0.9908775022274698</v>
       </c>
       <c r="D7">
-        <v>1.02376277544106</v>
+        <v>1.010732123831952</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.017517050114743</v>
+        <v>0.9713485194728571</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026953316078162</v>
+        <v>1.041123579072227</v>
       </c>
       <c r="J7">
-        <v>1.022726725093109</v>
+        <v>1.010511299215003</v>
       </c>
       <c r="K7">
-        <v>1.026277385668527</v>
+        <v>1.020699765905733</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.020047967826948</v>
+        <v>0.9818023789703435</v>
       </c>
       <c r="N7">
-        <v>1.024179114351136</v>
+        <v>1.011946341167154</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016712913817593</v>
+        <v>0.9838736758240331</v>
       </c>
       <c r="D8">
-        <v>1.022723336642958</v>
+        <v>1.005482908996453</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.015274083460961</v>
+        <v>0.9607157873936483</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026697989025844</v>
+        <v>1.039130786816416</v>
       </c>
       <c r="J8">
-        <v>1.021809897138386</v>
+        <v>1.005960239549016</v>
       </c>
       <c r="K8">
-        <v>1.025492477543771</v>
+        <v>1.016589119494196</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.018064802407768</v>
+        <v>0.972455561326182</v>
       </c>
       <c r="N8">
-        <v>1.023260984395556</v>
+        <v>1.007388818474428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014242230554431</v>
+        <v>0.9707257470850588</v>
       </c>
       <c r="D9">
-        <v>1.020879915135877</v>
+        <v>0.995621670164834</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.011310322327099</v>
+        <v>0.9406351520742361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026228996634949</v>
+        <v>1.03524665811324</v>
       </c>
       <c r="J9">
-        <v>1.020181193002234</v>
+        <v>0.9973563613442525</v>
       </c>
       <c r="K9">
-        <v>1.024092618545396</v>
+        <v>1.008786184390043</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.014555602028238</v>
+        <v>0.9547708812545371</v>
       </c>
       <c r="N9">
-        <v>1.021629967312716</v>
+        <v>0.9987727217757348</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012588738015894</v>
+        <v>0.9613327731011586</v>
       </c>
       <c r="D10">
-        <v>1.019642968874427</v>
+        <v>0.9885782043300634</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.008659577465204</v>
+        <v>0.9261647804419175</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025903491092794</v>
+        <v>1.032378940030092</v>
       </c>
       <c r="J10">
-        <v>1.019086447570949</v>
+        <v>0.9911692098661781</v>
       </c>
       <c r="K10">
-        <v>1.023148045563451</v>
+        <v>1.003156791208891</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.012205791179569</v>
+        <v>0.9420086740546685</v>
       </c>
       <c r="N10">
-        <v>1.020533667217349</v>
+        <v>0.9925767838328855</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011871209637478</v>
+        <v>0.9570944638891962</v>
       </c>
       <c r="D11">
-        <v>1.019105444021029</v>
+        <v>0.985401931248998</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.007509688740975</v>
+        <v>0.9195943223733338</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025759491817609</v>
+        <v>1.031063956854479</v>
       </c>
       <c r="J11">
-        <v>1.018610263879704</v>
+        <v>0.9883678918288046</v>
       </c>
       <c r="K11">
-        <v>1.022736329627008</v>
+        <v>1.000604498512978</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.011185726843843</v>
+        <v>0.9362104868093545</v>
       </c>
       <c r="N11">
-        <v>1.020056807290644</v>
+        <v>0.9897714876025834</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01160445068494</v>
+        <v>0.9554922962694674</v>
       </c>
       <c r="D12">
-        <v>1.018905493495206</v>
+        <v>0.984201660059835</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.007082242005985</v>
+        <v>0.9171032181072337</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025705544789199</v>
+        <v>1.030563802739983</v>
       </c>
       <c r="J12">
-        <v>1.018433062444378</v>
+        <v>0.9873075021685277</v>
       </c>
       <c r="K12">
-        <v>1.022582991282056</v>
+        <v>0.9996379220346446</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.010806431639418</v>
+        <v>0.9340117794066581</v>
       </c>
       <c r="N12">
-        <v>1.019879354208954</v>
+        <v>0.9887095920673605</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011661682162603</v>
+        <v>0.9558372656155186</v>
       </c>
       <c r="D13">
-        <v>1.01894839670407</v>
+        <v>0.9844600738574413</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.00717394575956</v>
+        <v>0.9176399397228162</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025717137403012</v>
+        <v>1.030671629753954</v>
       </c>
       <c r="J13">
-        <v>1.018471087526327</v>
+        <v>0.9875358838600492</v>
       </c>
       <c r="K13">
-        <v>1.022615901399273</v>
+        <v>0.9998461177526</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.010887809917943</v>
+        <v>0.9344855187965462</v>
       </c>
       <c r="N13">
-        <v>1.019917433290881</v>
+        <v>0.9889382980870794</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011849164112576</v>
+        <v>0.9569626102574362</v>
       </c>
       <c r="D14">
-        <v>1.019088921970454</v>
+        <v>0.9853031430269628</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.007474362595664</v>
+        <v>0.9193894680133822</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025755041912102</v>
+        <v>1.031022857258836</v>
       </c>
       <c r="J14">
-        <v>1.018595623009816</v>
+        <v>0.988280654026894</v>
       </c>
       <c r="K14">
-        <v>1.022723662978779</v>
+        <v>1.000524987366003</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.011154382359933</v>
+        <v>0.9360296849751641</v>
       </c>
       <c r="N14">
-        <v>1.020042145629041</v>
+        <v>0.9896841259129876</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011964646429646</v>
+        <v>0.9576522097072149</v>
       </c>
       <c r="D15">
-        <v>1.019175465768117</v>
+        <v>0.9858198272899912</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.007659415663257</v>
+        <v>0.9204605583540325</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025778335253778</v>
+        <v>1.03123768567729</v>
       </c>
       <c r="J15">
-        <v>1.018672310214152</v>
+        <v>0.988736852678626</v>
       </c>
       <c r="K15">
-        <v>1.022790004236537</v>
+        <v>1.000940762628157</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.011318573409226</v>
+        <v>0.9369750000076266</v>
       </c>
       <c r="N15">
-        <v>1.020118941738003</v>
+        <v>0.9901409724191316</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012636324963105</v>
+        <v>0.9616102721034337</v>
       </c>
       <c r="D16">
-        <v>1.019678602066127</v>
+        <v>0.988786218365032</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.008735846591285</v>
+        <v>0.926594028933432</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025912983474025</v>
+        <v>1.032464609615582</v>
       </c>
       <c r="J16">
-        <v>1.019118004781412</v>
+        <v>0.9913524256729568</v>
       </c>
       <c r="K16">
-        <v>1.023175312567926</v>
+        <v>1.003323653552713</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.01227343425134</v>
+        <v>0.9423874092358112</v>
       </c>
       <c r="N16">
-        <v>1.020565269242671</v>
+        <v>0.992760259827125</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01305723246406</v>
+        <v>0.964045805971287</v>
       </c>
       <c r="D17">
-        <v>1.01999369132389</v>
+        <v>0.9906121308877095</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.009410493262613</v>
+        <v>0.9303566590515098</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025996626911626</v>
+        <v>1.033214145010374</v>
       </c>
       <c r="J17">
-        <v>1.01939699949588</v>
+        <v>0.9929593833907228</v>
       </c>
       <c r="K17">
-        <v>1.023416279729347</v>
+        <v>1.004786790341225</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.012871695146693</v>
+        <v>0.9457068929930157</v>
       </c>
       <c r="N17">
-        <v>1.020844660161634</v>
+        <v>0.9943694996091705</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013302590861348</v>
+        <v>0.9654500636174234</v>
       </c>
       <c r="D18">
-        <v>1.020177292514019</v>
+        <v>0.9916650667299746</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.009803801543454</v>
+        <v>0.9325222947465833</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026045120162039</v>
+        <v>1.033644321615193</v>
       </c>
       <c r="J18">
-        <v>1.01955952494631</v>
+        <v>0.9938850101955183</v>
       </c>
       <c r="K18">
-        <v>1.023556570473386</v>
+        <v>1.005629239867751</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.013220402293914</v>
+        <v>0.9476171486736893</v>
       </c>
       <c r="N18">
-        <v>1.021007416416846</v>
+        <v>0.9952964409102</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013386226420138</v>
+        <v>0.965926167833442</v>
       </c>
       <c r="D19">
-        <v>1.02023986443479</v>
+        <v>0.9920220821116459</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.009937875637839</v>
+        <v>0.933255928384068</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026061605162946</v>
+        <v>1.033789830983447</v>
       </c>
       <c r="J19">
-        <v>1.019614906808336</v>
+        <v>0.9941986853946104</v>
       </c>
       <c r="K19">
-        <v>1.023604361714805</v>
+        <v>1.005914669144262</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.013339260607731</v>
+        <v>0.9482642122248295</v>
       </c>
       <c r="N19">
-        <v>1.021062876927468</v>
+        <v>0.9956105615640539</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013012088595076</v>
+        <v>0.9637862020087816</v>
       </c>
       <c r="D20">
-        <v>1.019959904380522</v>
+        <v>0.9904174881393789</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.009338131009134</v>
+        <v>0.9299560007839397</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025987683233767</v>
+        <v>1.033134457353682</v>
       </c>
       <c r="J20">
-        <v>1.01936708747835</v>
+        <v>0.9927881907873025</v>
       </c>
       <c r="K20">
-        <v>1.023390453275968</v>
+        <v>1.004630953557699</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.012807533174147</v>
+        <v>0.9453534552003473</v>
       </c>
       <c r="N20">
-        <v>1.020814705665609</v>
+        <v>0.9941980638926176</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011793961919384</v>
+        <v>0.9566320124316228</v>
       </c>
       <c r="D21">
-        <v>1.019047548796336</v>
+        <v>0.9850554577429218</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.007385906441489</v>
+        <v>0.9188757125289093</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025743892662174</v>
+        <v>1.030919758909492</v>
       </c>
       <c r="J21">
-        <v>1.018558959421325</v>
+        <v>0.9880618988037989</v>
       </c>
       <c r="K21">
-        <v>1.022691941175273</v>
+        <v>1.000325600318448</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.011075894485766</v>
+        <v>0.9355762449169871</v>
       </c>
       <c r="N21">
-        <v>1.020005429974049</v>
+        <v>0.9894650600323844</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011026704654397</v>
+        <v>0.9519713581712476</v>
       </c>
       <c r="D22">
-        <v>1.018472236776189</v>
+        <v>0.9815648824650969</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.006156568441006</v>
+        <v>0.9116137735985397</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025587954266781</v>
+        <v>1.029459117200099</v>
       </c>
       <c r="J22">
-        <v>1.018048972170091</v>
+        <v>0.9849745303435686</v>
       </c>
       <c r="K22">
-        <v>1.022250393365223</v>
+        <v>0.997510607518081</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.009984837334178</v>
+        <v>0.9291660556380289</v>
       </c>
       <c r="N22">
-        <v>1.019494718482421</v>
+        <v>0.9863733071548142</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011433573479443</v>
+        <v>0.954458261755137</v>
       </c>
       <c r="D23">
-        <v>1.018777380136001</v>
+        <v>0.9834271467686114</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.006808447469417</v>
+        <v>0.9154932376449262</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025670872266445</v>
+        <v>1.030240153041742</v>
       </c>
       <c r="J23">
-        <v>1.018319505535985</v>
+        <v>0.9866227248277264</v>
       </c>
       <c r="K23">
-        <v>1.022484690991812</v>
+        <v>0.9990136102272829</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.0105634494877</v>
+        <v>0.9325906741514254</v>
       </c>
       <c r="N23">
-        <v>1.019765636036726</v>
+        <v>0.98802384226419</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013032487629076</v>
+        <v>0.9639035562251465</v>
       </c>
       <c r="D24">
-        <v>1.019975171817649</v>
+        <v>0.9905054760662099</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.938164042401182</v>
       </c>
       <c r="F24">
-        <v>1.009370829018875</v>
+        <v>0.9301371304074506</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02599172540694</v>
+        <v>1.033170486400832</v>
       </c>
       <c r="J24">
-        <v>1.019380604072392</v>
+        <v>0.992865581354182</v>
       </c>
       <c r="K24">
-        <v>1.023402123945975</v>
+        <v>1.004701403306958</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.01283652597404</v>
+        <v>0.9455132383918463</v>
       </c>
       <c r="N24">
-        <v>1.020828241454765</v>
+        <v>0.9942755643629788</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014882072341768</v>
+        <v>0.9742286087477349</v>
       </c>
       <c r="D25">
-        <v>1.021357888565543</v>
+        <v>0.9982491145191484</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718021</v>
       </c>
       <c r="F25">
-        <v>1.012336457598084</v>
+        <v>0.946002928131416</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026352504695465</v>
+        <v>1.036297629579426</v>
       </c>
       <c r="J25">
-        <v>1.020603820029821</v>
+        <v>0.9996555370413683</v>
       </c>
       <c r="K25">
-        <v>1.024456507912286</v>
+        <v>1.010874671671885</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.9598754494005834</v>
       </c>
       <c r="M25">
-        <v>1.01546459913848</v>
+        <v>0.9595016114710397</v>
       </c>
       <c r="N25">
-        <v>1.022053194519157</v>
+        <v>1.00107516256606</v>
       </c>
     </row>
   </sheetData>
